--- a/files/reports/Book.xlsx
+++ b/files/reports/Book.xlsx
@@ -233,12 +233,13 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B8"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
@@ -417,7 +418,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="B2:B8 B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/files/reports/Book.xlsx
+++ b/files/reports/Book.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t xml:space="preserve">Incident ID</t>
   </si>
@@ -116,6 +116,48 @@
     <t xml:space="preserve">Summary 7</t>
   </si>
   <si>
+    <t xml:space="preserve">INC000015536916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC000015536917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC000015536918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC000015536919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC000015536920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC000015536921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INC000015536922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -123,12 +165,6 @@
   </si>
   <si>
     <t xml:space="preserve">DB Col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Date</t>
   </si>
 </sst>
 </file>
@@ -230,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,6 +433,111 @@
       <c r="G8" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>05/19/2019 01:47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
+        <v>02/08/2019 15:46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
+        <v>10/16/2019 19:04</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
+        <v>12/25/2019 05:51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
+        <v>01/09/2019 01:59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
+        <v>01/17/2019 17:25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
+        <v>06/23/2019 16:37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
+        <v>07/11/2019 18:14</v>
       </c>
     </row>
   </sheetData>
@@ -415,28 +556,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.2"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,9 +588,6 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
@@ -459,9 +597,6 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
@@ -505,8 +640,40 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>35</v>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/files/reports/Book.xlsx
+++ b/files/reports/Book.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t xml:space="preserve">Incident ID</t>
   </si>
@@ -77,7 +77,10 @@
     <t xml:space="preserve">Closed</t>
   </si>
   <si>
-    <t xml:space="preserve">Infra</t>
+    <t xml:space="preserve">Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status 1</t>
   </si>
   <si>
     <t xml:space="preserve">INC000015536910</t>
@@ -86,76 +89,73 @@
     <t xml:space="preserve">Summary 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Restoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">INC000015536911</t>
   </si>
   <si>
     <t xml:space="preserve">Summary 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Status 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">INC000015536912</t>
   </si>
   <si>
     <t xml:space="preserve">Summary 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Status 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">INC000015536913</t>
   </si>
   <si>
     <t xml:space="preserve">Summary 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Status 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">INC000015536914</t>
   </si>
   <si>
     <t xml:space="preserve">Summary 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Status 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">INC000015536915</t>
   </si>
   <si>
     <t xml:space="preserve">Summary 7</t>
   </si>
   <si>
+    <t xml:space="preserve">Status 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">INC000015536916</t>
   </si>
   <si>
     <t xml:space="preserve">Summary 8</t>
   </si>
   <si>
+    <t xml:space="preserve">Status 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">INC000015536917</t>
   </si>
   <si>
     <t xml:space="preserve">Summary 9</t>
   </si>
   <si>
-    <t xml:space="preserve">INC000015536918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INC000015536919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INC000015536920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INC000015536921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INC000015536922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary 14</t>
+    <t xml:space="preserve">Status 9</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -266,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -342,202 +342,202 @@
       </c>
       <c r="G2" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
-        <v>11/27/2019 13:48</v>
+        <v>12/06/2019 18:53</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>03/23/2019 04:42</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>05/23/2019 11:41</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>04/20/2019 01:16</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="G6" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>04/11/2019 12:56</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>06/14/2019 18:22</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>05/19/2019 01:47</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>02/08/2019 15:46</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="E10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="1" t="str">
         <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
         <v>10/16/2019 19:04</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
-        <v>12/25/2019 05:51</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
-        <v>01/09/2019 01:59</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
-        <v>01/17/2019 17:25</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
-        <v>06/23/2019 16:37</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f aca="false">TEXT(DATE(2019,RANDBETWEEN(1,12),RANDBETWEEN(1,27)),"MM/DD/YYYY") &amp; " " &amp; TEXT(TIME(RANDBETWEEN(1,23),RANDBETWEEN(0,59),RANDBETWEEN(0,59)),"HH:MM")</f>
-        <v>07/11/2019 18:14</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +559,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
